--- a/data/stimuli.xlsx
+++ b/data/stimuli.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="18">
   <si>
     <t>left_p</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>CONTROL; p fixed / x varies, x0 negative vs positive</t>
+  </si>
+  <si>
+    <t>CONTROL; p varies / x varies, x0 negative vs positive</t>
+  </si>
+  <si>
+    <t>CONTROL; p varies or is 1 / x varies, x0 negative vs 0</t>
+  </si>
+  <si>
+    <t>CONTROL; p varies or is 1 / x varies, x0 positive vs 0</t>
   </si>
   <si>
     <t>CONTROL; p fixed / x varies; x0 positive</t>
@@ -390,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,16 +1150,16 @@
         <v>0.25</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C38">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -1161,16 +1170,16 @@
         <v>0.25</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C39">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -1181,16 +1190,16 @@
         <v>0.25</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C40">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -1198,19 +1207,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C41">
         <v>0.5</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -1218,19 +1227,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C42">
         <v>0.5</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
@@ -1238,10 +1247,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C43">
         <v>0.5</v>
@@ -1250,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
@@ -1258,19 +1267,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C44">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
@@ -1278,19 +1287,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C45">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -1298,19 +1307,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C46">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -1318,19 +1327,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -1338,19 +1347,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -1358,19 +1367,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -1381,19 +1390,19 @@
         <v>0.25</v>
       </c>
       <c r="B50">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C50">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D50">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1401,19 +1410,19 @@
         <v>0.25</v>
       </c>
       <c r="B51">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C51">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1424,181 +1433,181 @@
         <v>-2</v>
       </c>
       <c r="C52">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B53">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C53">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D53">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B54">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C54">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D54">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B55">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C55">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D55">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B56">
         <v>-3</v>
       </c>
       <c r="C56">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B57">
         <v>-3</v>
       </c>
       <c r="C57">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B58">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C58">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B59">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B60">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B61">
         <v>-2</v>
@@ -1607,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1621,19 +1630,19 @@
         <v>0.25</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1641,19 +1650,19 @@
         <v>0.25</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1661,139 +1670,139 @@
         <v>0.25</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C65">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C66">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C67">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1801,19 +1810,19 @@
         <v>0.5</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C71">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1821,19 +1830,19 @@
         <v>0.5</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C72">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1841,19 +1850,19 @@
         <v>0.5</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C73">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1861,19 +1870,19 @@
         <v>0.5</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1881,19 +1890,19 @@
         <v>0.5</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1901,224 +1910,224 @@
         <v>0.5</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B80">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C80">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D80">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B81">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C81">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D81">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B82">
         <v>-1</v>
       </c>
       <c r="C82">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D82">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B83">
         <v>-3</v>
       </c>
       <c r="C83">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B84">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C84">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B85">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C85">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B86">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B87">
         <v>-2</v>
@@ -2127,33 +2136,33 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B88">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2161,19 +2170,19 @@
         <v>0.5</v>
       </c>
       <c r="B89">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C89">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2181,19 +2190,19 @@
         <v>0.5</v>
       </c>
       <c r="B90">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C90">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2204,76 +2213,76 @@
         <v>-1</v>
       </c>
       <c r="C91">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E91">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B92">
         <v>-3</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D92">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B93">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D93">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B94">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D94">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E94">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2281,19 +2290,19 @@
         <v>0.75</v>
       </c>
       <c r="B95">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D95">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2304,16 +2313,16 @@
         <v>-2</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D96">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2321,319 +2330,319 @@
         <v>0.75</v>
       </c>
       <c r="B97">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D97">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C98">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C99">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C100">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C101">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C102">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C103">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E103">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C107">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C108">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C109">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2641,19 +2650,19 @@
         <v>0.75</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2661,19 +2670,19 @@
         <v>0.75</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2681,427 +2690,427 @@
         <v>0.75</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E115">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B116">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C116">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B117">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C117">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B118">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C118">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E118">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B119">
         <v>-3</v>
       </c>
       <c r="C119">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D119">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B120">
         <v>-3</v>
       </c>
       <c r="C120">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B121">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C121">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D121">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E121">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B122">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D122">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B123">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D123">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B124">
         <v>-2</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D124">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E124">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B125">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C125">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D125">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B126">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C126">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D126">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B127">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C127">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D127">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E127">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B128">
         <v>-3</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D128">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B129">
         <v>-3</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D129">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B130">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D130">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E130">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B131">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D131">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B132">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E132">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B133">
         <v>-2</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D133">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C134">
         <v>0.5</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C135">
         <v>0.5</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C136">
         <v>0.5</v>
@@ -3110,58 +3119,58 @@
         <v>3</v>
       </c>
       <c r="E136">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C137">
         <v>0.75</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C138">
         <v>0.75</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E138">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C139">
         <v>0.75</v>
@@ -3170,118 +3179,118 @@
         <v>3</v>
       </c>
       <c r="E139">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D142">
         <v>3</v>
       </c>
       <c r="E142">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C143">
         <v>0.75</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C144">
         <v>0.75</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C145">
         <v>0.75</v>
@@ -3290,250 +3299,250 @@
         <v>3</v>
       </c>
       <c r="E145">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E146">
+        <v>11</v>
+      </c>
+      <c r="F146" t="s">
         <v>8</v>
-      </c>
-      <c r="F146" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E147">
+        <v>11</v>
+      </c>
+      <c r="F147" t="s">
         <v>8</v>
-      </c>
-      <c r="F147" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E148">
+        <v>11</v>
+      </c>
+      <c r="F148" t="s">
         <v>8</v>
-      </c>
-      <c r="F148" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E149">
+        <v>11</v>
+      </c>
+      <c r="F149" t="s">
         <v>8</v>
-      </c>
-      <c r="F149" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E150">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
         <v>8</v>
-      </c>
-      <c r="F150" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E151">
+        <v>11</v>
+      </c>
+      <c r="F151" t="s">
         <v>8</v>
-      </c>
-      <c r="F151" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B152">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C152">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B153">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C153">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B154">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C154">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B155">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C155">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B156">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C156">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B157">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C157">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3541,19 +3550,19 @@
         <v>0.25</v>
       </c>
       <c r="B158">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E158">
+        <v>12</v>
+      </c>
+      <c r="F158" t="s">
         <v>9</v>
-      </c>
-      <c r="F158" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3561,19 +3570,19 @@
         <v>0.25</v>
       </c>
       <c r="B159">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E159">
+        <v>12</v>
+      </c>
+      <c r="F159" t="s">
         <v>9</v>
-      </c>
-      <c r="F159" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3581,19 +3590,19 @@
         <v>0.25</v>
       </c>
       <c r="B160">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E160">
+        <v>12</v>
+      </c>
+      <c r="F160" t="s">
         <v>9</v>
-      </c>
-      <c r="F160" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3601,19 +3610,19 @@
         <v>0.5</v>
       </c>
       <c r="B161">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E161">
+        <v>12</v>
+      </c>
+      <c r="F161" t="s">
         <v>9</v>
-      </c>
-      <c r="F161" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3621,19 +3630,19 @@
         <v>0.5</v>
       </c>
       <c r="B162">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E162">
+        <v>12</v>
+      </c>
+      <c r="F162" t="s">
         <v>9</v>
-      </c>
-      <c r="F162" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3641,139 +3650,2779 @@
         <v>0.5</v>
       </c>
       <c r="B163">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E163">
+        <v>12</v>
+      </c>
+      <c r="F163" t="s">
         <v>9</v>
-      </c>
-      <c r="F163" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B164">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E164">
+        <v>12</v>
+      </c>
+      <c r="F164" t="s">
         <v>9</v>
-      </c>
-      <c r="F164" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B165">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E165">
+        <v>12</v>
+      </c>
+      <c r="F165" t="s">
         <v>9</v>
-      </c>
-      <c r="F165" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B166">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E166">
+        <v>12</v>
+      </c>
+      <c r="F166" t="s">
         <v>9</v>
-      </c>
-      <c r="F166" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B167">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E167">
+        <v>12</v>
+      </c>
+      <c r="F167" t="s">
         <v>9</v>
-      </c>
-      <c r="F167" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B168">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E168">
+        <v>12</v>
+      </c>
+      <c r="F168" t="s">
         <v>9</v>
-      </c>
-      <c r="F168" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B169">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E169">
+        <v>12</v>
+      </c>
+      <c r="F169" t="s">
         <v>9</v>
       </c>
-      <c r="F169" t="s">
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>0.25</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>0.25</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>0.25</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>0.25</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>0.25</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172">
+        <v>0.25</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>0.5</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>0.5</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>0.5</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>0.5</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>0.5</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>0.5</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>0.75</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>0.75</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>0.75</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>0.75</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>0.75</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>0.75</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>3</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>0.25</v>
+      </c>
+      <c r="B182">
+        <v>-3</v>
+      </c>
+      <c r="C182">
+        <v>0.25</v>
+      </c>
+      <c r="D182">
+        <v>-2</v>
+      </c>
+      <c r="E182">
+        <v>3</v>
+      </c>
+      <c r="F182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>0.25</v>
+      </c>
+      <c r="B183">
+        <v>-3</v>
+      </c>
+      <c r="C183">
+        <v>0.25</v>
+      </c>
+      <c r="D183">
+        <v>-1</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="F183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>0.25</v>
+      </c>
+      <c r="B184">
+        <v>-2</v>
+      </c>
+      <c r="C184">
+        <v>0.25</v>
+      </c>
+      <c r="D184">
+        <v>-1</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+      <c r="F184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>0.5</v>
+      </c>
+      <c r="B185">
+        <v>-3</v>
+      </c>
+      <c r="C185">
+        <v>0.5</v>
+      </c>
+      <c r="D185">
+        <v>-2</v>
+      </c>
+      <c r="E185">
+        <v>3</v>
+      </c>
+      <c r="F185" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>0.5</v>
+      </c>
+      <c r="B186">
+        <v>-3</v>
+      </c>
+      <c r="C186">
+        <v>0.5</v>
+      </c>
+      <c r="D186">
+        <v>-1</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+      <c r="F186" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>0.5</v>
+      </c>
+      <c r="B187">
+        <v>-2</v>
+      </c>
+      <c r="C187">
+        <v>0.5</v>
+      </c>
+      <c r="D187">
+        <v>-1</v>
+      </c>
+      <c r="E187">
+        <v>3</v>
+      </c>
+      <c r="F187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>0.75</v>
+      </c>
+      <c r="B188">
+        <v>-3</v>
+      </c>
+      <c r="C188">
+        <v>0.75</v>
+      </c>
+      <c r="D188">
+        <v>-2</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+      <c r="F188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>0.75</v>
+      </c>
+      <c r="B189">
+        <v>-3</v>
+      </c>
+      <c r="C189">
+        <v>0.75</v>
+      </c>
+      <c r="D189">
+        <v>-1</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>0.75</v>
+      </c>
+      <c r="B190">
+        <v>-2</v>
+      </c>
+      <c r="C190">
+        <v>0.75</v>
+      </c>
+      <c r="D190">
+        <v>-1</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
+      <c r="F190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <v>-3</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>-2</v>
+      </c>
+      <c r="E191">
+        <v>3</v>
+      </c>
+      <c r="F191" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>-3</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>-1</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+      <c r="F192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>-2</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>-1</v>
+      </c>
+      <c r="E193">
+        <v>3</v>
+      </c>
+      <c r="F193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>0.25</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>0.5</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>4</v>
+      </c>
+      <c r="F194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>0.25</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>0.5</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
+      <c r="F195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>0.25</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>0.5</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196">
+        <v>4</v>
+      </c>
+      <c r="F196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>0.25</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>0.75</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
+      <c r="F197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>0.25</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>0.75</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198">
+        <v>4</v>
+      </c>
+      <c r="F198" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>0.25</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>0.75</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+      <c r="E199">
+        <v>4</v>
+      </c>
+      <c r="F199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>0.25</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>4</v>
+      </c>
+      <c r="F200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>0.25</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>4</v>
+      </c>
+      <c r="F201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>0.25</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>3</v>
+      </c>
+      <c r="E202">
+        <v>4</v>
+      </c>
+      <c r="F202" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>0.5</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>0.75</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>4</v>
+      </c>
+      <c r="F203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>0.5</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204">
+        <v>0.75</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>4</v>
+      </c>
+      <c r="F204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>0.5</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>0.75</v>
+      </c>
+      <c r="D205">
+        <v>3</v>
+      </c>
+      <c r="E205">
+        <v>4</v>
+      </c>
+      <c r="F205" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>0.5</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>4</v>
+      </c>
+      <c r="F206" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>0.5</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>4</v>
+      </c>
+      <c r="F207" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>0.5</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+      <c r="E208">
+        <v>4</v>
+      </c>
+      <c r="F208" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>0.75</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>4</v>
+      </c>
+      <c r="F209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>0.75</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210">
+        <v>4</v>
+      </c>
+      <c r="F210" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>0.75</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+      <c r="E211">
+        <v>4</v>
+      </c>
+      <c r="F211" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
+        <v>0.25</v>
+      </c>
+      <c r="B212">
+        <v>-3</v>
+      </c>
+      <c r="C212">
+        <v>0.5</v>
+      </c>
+      <c r="D212">
+        <v>-3</v>
+      </c>
+      <c r="E212">
+        <v>5</v>
+      </c>
+      <c r="F212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>0.25</v>
+      </c>
+      <c r="B213">
+        <v>-2</v>
+      </c>
+      <c r="C213">
+        <v>0.5</v>
+      </c>
+      <c r="D213">
+        <v>-2</v>
+      </c>
+      <c r="E213">
+        <v>5</v>
+      </c>
+      <c r="F213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>0.25</v>
+      </c>
+      <c r="B214">
+        <v>-1</v>
+      </c>
+      <c r="C214">
+        <v>0.5</v>
+      </c>
+      <c r="D214">
+        <v>-1</v>
+      </c>
+      <c r="E214">
+        <v>5</v>
+      </c>
+      <c r="F214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <v>0.25</v>
+      </c>
+      <c r="B215">
+        <v>-3</v>
+      </c>
+      <c r="C215">
+        <v>0.75</v>
+      </c>
+      <c r="D215">
+        <v>-3</v>
+      </c>
+      <c r="E215">
+        <v>5</v>
+      </c>
+      <c r="F215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <v>0.25</v>
+      </c>
+      <c r="B216">
+        <v>-2</v>
+      </c>
+      <c r="C216">
+        <v>0.75</v>
+      </c>
+      <c r="D216">
+        <v>-2</v>
+      </c>
+      <c r="E216">
+        <v>5</v>
+      </c>
+      <c r="F216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217">
+        <v>0.25</v>
+      </c>
+      <c r="B217">
+        <v>-1</v>
+      </c>
+      <c r="C217">
+        <v>0.75</v>
+      </c>
+      <c r="D217">
+        <v>-1</v>
+      </c>
+      <c r="E217">
+        <v>5</v>
+      </c>
+      <c r="F217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218">
+        <v>0.25</v>
+      </c>
+      <c r="B218">
+        <v>-3</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>-3</v>
+      </c>
+      <c r="E218">
+        <v>5</v>
+      </c>
+      <c r="F218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>0.25</v>
+      </c>
+      <c r="B219">
+        <v>-2</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>-2</v>
+      </c>
+      <c r="E219">
+        <v>5</v>
+      </c>
+      <c r="F219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220">
+        <v>0.25</v>
+      </c>
+      <c r="B220">
+        <v>-1</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>-1</v>
+      </c>
+      <c r="E220">
+        <v>5</v>
+      </c>
+      <c r="F220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>0.5</v>
+      </c>
+      <c r="B221">
+        <v>-3</v>
+      </c>
+      <c r="C221">
+        <v>0.75</v>
+      </c>
+      <c r="D221">
+        <v>-3</v>
+      </c>
+      <c r="E221">
+        <v>5</v>
+      </c>
+      <c r="F221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>0.5</v>
+      </c>
+      <c r="B222">
+        <v>-2</v>
+      </c>
+      <c r="C222">
+        <v>0.75</v>
+      </c>
+      <c r="D222">
+        <v>-2</v>
+      </c>
+      <c r="E222">
+        <v>5</v>
+      </c>
+      <c r="F222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223">
+        <v>0.5</v>
+      </c>
+      <c r="B223">
+        <v>-1</v>
+      </c>
+      <c r="C223">
+        <v>0.75</v>
+      </c>
+      <c r="D223">
+        <v>-1</v>
+      </c>
+      <c r="E223">
+        <v>5</v>
+      </c>
+      <c r="F223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224">
+        <v>0.5</v>
+      </c>
+      <c r="B224">
+        <v>-3</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>-3</v>
+      </c>
+      <c r="E224">
+        <v>5</v>
+      </c>
+      <c r="F224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>0.5</v>
+      </c>
+      <c r="B225">
+        <v>-2</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>-2</v>
+      </c>
+      <c r="E225">
+        <v>5</v>
+      </c>
+      <c r="F225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>0.5</v>
+      </c>
+      <c r="B226">
+        <v>-1</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>-1</v>
+      </c>
+      <c r="E226">
+        <v>5</v>
+      </c>
+      <c r="F226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>0.75</v>
+      </c>
+      <c r="B227">
+        <v>-3</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>-3</v>
+      </c>
+      <c r="E227">
+        <v>5</v>
+      </c>
+      <c r="F227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>0.75</v>
+      </c>
+      <c r="B228">
+        <v>-2</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>-2</v>
+      </c>
+      <c r="E228">
+        <v>5</v>
+      </c>
+      <c r="F228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>0.75</v>
+      </c>
+      <c r="B229">
+        <v>-1</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>-1</v>
+      </c>
+      <c r="E229">
+        <v>5</v>
+      </c>
+      <c r="F229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>0.25</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>0.5</v>
+      </c>
+      <c r="D230">
+        <v>2</v>
+      </c>
+      <c r="E230">
+        <v>6</v>
+      </c>
+      <c r="F230" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>0.25</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+      <c r="C231">
+        <v>0.5</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>6</v>
+      </c>
+      <c r="F231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>0.25</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232">
+        <v>0.5</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>6</v>
+      </c>
+      <c r="F232" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>0.25</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>0.75</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <v>6</v>
+      </c>
+      <c r="F233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>0.25</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <v>0.75</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>6</v>
+      </c>
+      <c r="F234" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235">
+        <v>0.25</v>
+      </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
+      <c r="C235">
+        <v>0.75</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>6</v>
+      </c>
+      <c r="F235" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236">
+        <v>0.25</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>6</v>
+      </c>
+      <c r="F236" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
+        <v>0.25</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>6</v>
+      </c>
+      <c r="F237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238">
+        <v>0.25</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>6</v>
+      </c>
+      <c r="F238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
+        <v>0.5</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>0.75</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239">
+        <v>6</v>
+      </c>
+      <c r="F239" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240">
+        <v>0.5</v>
+      </c>
+      <c r="B240">
+        <v>3</v>
+      </c>
+      <c r="C240">
+        <v>0.75</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>6</v>
+      </c>
+      <c r="F240" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241">
+        <v>0.5</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="C241">
+        <v>0.75</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>6</v>
+      </c>
+      <c r="F241" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242">
+        <v>0.5</v>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <v>6</v>
+      </c>
+      <c r="F242" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243">
+        <v>0.5</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>6</v>
+      </c>
+      <c r="F243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244">
+        <v>0.5</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>6</v>
+      </c>
+      <c r="F244" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245">
+        <v>0.75</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>2</v>
+      </c>
+      <c r="E245">
+        <v>6</v>
+      </c>
+      <c r="F245" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246">
+        <v>0.75</v>
+      </c>
+      <c r="B246">
+        <v>3</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>6</v>
+      </c>
+      <c r="F246" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247">
+        <v>0.75</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>6</v>
+      </c>
+      <c r="F247" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248">
+        <v>0.25</v>
+      </c>
+      <c r="B248">
+        <v>-3</v>
+      </c>
+      <c r="C248">
+        <v>0.5</v>
+      </c>
+      <c r="D248">
+        <v>-2</v>
+      </c>
+      <c r="E248">
+        <v>7</v>
+      </c>
+      <c r="F248" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249">
+        <v>0.25</v>
+      </c>
+      <c r="B249">
+        <v>-3</v>
+      </c>
+      <c r="C249">
+        <v>0.5</v>
+      </c>
+      <c r="D249">
+        <v>-1</v>
+      </c>
+      <c r="E249">
+        <v>7</v>
+      </c>
+      <c r="F249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250">
+        <v>0.25</v>
+      </c>
+      <c r="B250">
+        <v>-2</v>
+      </c>
+      <c r="C250">
+        <v>0.5</v>
+      </c>
+      <c r="D250">
+        <v>-1</v>
+      </c>
+      <c r="E250">
+        <v>7</v>
+      </c>
+      <c r="F250" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251">
+        <v>0.25</v>
+      </c>
+      <c r="B251">
+        <v>-3</v>
+      </c>
+      <c r="C251">
+        <v>0.75</v>
+      </c>
+      <c r="D251">
+        <v>-2</v>
+      </c>
+      <c r="E251">
+        <v>7</v>
+      </c>
+      <c r="F251" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252">
+        <v>0.25</v>
+      </c>
+      <c r="B252">
+        <v>-3</v>
+      </c>
+      <c r="C252">
+        <v>0.75</v>
+      </c>
+      <c r="D252">
+        <v>-1</v>
+      </c>
+      <c r="E252">
+        <v>7</v>
+      </c>
+      <c r="F252" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253">
+        <v>0.25</v>
+      </c>
+      <c r="B253">
+        <v>-2</v>
+      </c>
+      <c r="C253">
+        <v>0.75</v>
+      </c>
+      <c r="D253">
+        <v>-1</v>
+      </c>
+      <c r="E253">
+        <v>7</v>
+      </c>
+      <c r="F253" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254">
+        <v>0.25</v>
+      </c>
+      <c r="B254">
+        <v>-3</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>-2</v>
+      </c>
+      <c r="E254">
+        <v>7</v>
+      </c>
+      <c r="F254" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255">
+        <v>0.25</v>
+      </c>
+      <c r="B255">
+        <v>-3</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>-1</v>
+      </c>
+      <c r="E255">
+        <v>7</v>
+      </c>
+      <c r="F255" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256">
+        <v>0.25</v>
+      </c>
+      <c r="B256">
+        <v>-2</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>-1</v>
+      </c>
+      <c r="E256">
+        <v>7</v>
+      </c>
+      <c r="F256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257">
+        <v>0.5</v>
+      </c>
+      <c r="B257">
+        <v>-3</v>
+      </c>
+      <c r="C257">
+        <v>0.75</v>
+      </c>
+      <c r="D257">
+        <v>-2</v>
+      </c>
+      <c r="E257">
+        <v>7</v>
+      </c>
+      <c r="F257" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258">
+        <v>0.5</v>
+      </c>
+      <c r="B258">
+        <v>-3</v>
+      </c>
+      <c r="C258">
+        <v>0.75</v>
+      </c>
+      <c r="D258">
+        <v>-1</v>
+      </c>
+      <c r="E258">
+        <v>7</v>
+      </c>
+      <c r="F258" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259">
+        <v>0.5</v>
+      </c>
+      <c r="B259">
+        <v>-2</v>
+      </c>
+      <c r="C259">
+        <v>0.75</v>
+      </c>
+      <c r="D259">
+        <v>-1</v>
+      </c>
+      <c r="E259">
+        <v>7</v>
+      </c>
+      <c r="F259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260">
+        <v>0.5</v>
+      </c>
+      <c r="B260">
+        <v>-3</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>-2</v>
+      </c>
+      <c r="E260">
+        <v>7</v>
+      </c>
+      <c r="F260" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261">
+        <v>0.5</v>
+      </c>
+      <c r="B261">
+        <v>-3</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>-1</v>
+      </c>
+      <c r="E261">
+        <v>7</v>
+      </c>
+      <c r="F261" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262">
+        <v>0.5</v>
+      </c>
+      <c r="B262">
+        <v>-2</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>-1</v>
+      </c>
+      <c r="E262">
+        <v>7</v>
+      </c>
+      <c r="F262" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263">
+        <v>0.75</v>
+      </c>
+      <c r="B263">
+        <v>-3</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>-2</v>
+      </c>
+      <c r="E263">
+        <v>7</v>
+      </c>
+      <c r="F263" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264">
+        <v>0.75</v>
+      </c>
+      <c r="B264">
+        <v>-3</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>-1</v>
+      </c>
+      <c r="E264">
+        <v>7</v>
+      </c>
+      <c r="F264" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265">
+        <v>0.75</v>
+      </c>
+      <c r="B265">
+        <v>-2</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>-1</v>
+      </c>
+      <c r="E265">
+        <v>7</v>
+      </c>
+      <c r="F265" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266">
+        <v>0.25</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>0.5</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+      <c r="E266">
+        <v>8</v>
+      </c>
+      <c r="F266" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267">
+        <v>0.25</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>0.5</v>
+      </c>
+      <c r="D267">
+        <v>3</v>
+      </c>
+      <c r="E267">
+        <v>8</v>
+      </c>
+      <c r="F267" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268">
+        <v>0.25</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+      <c r="C268">
+        <v>0.5</v>
+      </c>
+      <c r="D268">
+        <v>3</v>
+      </c>
+      <c r="E268">
+        <v>8</v>
+      </c>
+      <c r="F268" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269">
+        <v>0.25</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>0.75</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+      <c r="E269">
+        <v>8</v>
+      </c>
+      <c r="F269" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270">
+        <v>0.25</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>0.75</v>
+      </c>
+      <c r="D270">
+        <v>3</v>
+      </c>
+      <c r="E270">
+        <v>8</v>
+      </c>
+      <c r="F270" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271">
+        <v>0.25</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="C271">
+        <v>0.75</v>
+      </c>
+      <c r="D271">
+        <v>3</v>
+      </c>
+      <c r="E271">
+        <v>8</v>
+      </c>
+      <c r="F271" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272">
+        <v>0.25</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+      <c r="E272">
+        <v>8</v>
+      </c>
+      <c r="F272" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273">
+        <v>0.25</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>3</v>
+      </c>
+      <c r="E273">
+        <v>8</v>
+      </c>
+      <c r="F273" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274">
+        <v>0.25</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>3</v>
+      </c>
+      <c r="E274">
+        <v>8</v>
+      </c>
+      <c r="F274" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275">
+        <v>0.5</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>0.75</v>
+      </c>
+      <c r="D275">
+        <v>2</v>
+      </c>
+      <c r="E275">
+        <v>8</v>
+      </c>
+      <c r="F275" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276">
+        <v>0.5</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>0.75</v>
+      </c>
+      <c r="D276">
+        <v>3</v>
+      </c>
+      <c r="E276">
+        <v>8</v>
+      </c>
+      <c r="F276" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277">
+        <v>0.5</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>0.75</v>
+      </c>
+      <c r="D277">
+        <v>3</v>
+      </c>
+      <c r="E277">
+        <v>8</v>
+      </c>
+      <c r="F277" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278">
+        <v>0.5</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+      <c r="E278">
+        <v>8</v>
+      </c>
+      <c r="F278" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279">
+        <v>0.5</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>3</v>
+      </c>
+      <c r="E279">
+        <v>8</v>
+      </c>
+      <c r="F279" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280">
+        <v>0.5</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>3</v>
+      </c>
+      <c r="E280">
+        <v>8</v>
+      </c>
+      <c r="F280" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281">
+        <v>0.75</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
+      </c>
+      <c r="E281">
+        <v>8</v>
+      </c>
+      <c r="F281" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282">
+        <v>0.75</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>3</v>
+      </c>
+      <c r="E282">
+        <v>8</v>
+      </c>
+      <c r="F282" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283">
+        <v>0.75</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>3</v>
+      </c>
+      <c r="E283">
+        <v>8</v>
+      </c>
+      <c r="F283" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284">
+        <v>0.25</v>
+      </c>
+      <c r="B284">
+        <v>-1</v>
+      </c>
+      <c r="C284">
+        <v>0.5</v>
+      </c>
+      <c r="D284">
+        <v>-2</v>
+      </c>
+      <c r="E284">
+        <v>9</v>
+      </c>
+      <c r="F284" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285">
+        <v>0.25</v>
+      </c>
+      <c r="B285">
+        <v>-1</v>
+      </c>
+      <c r="C285">
+        <v>0.5</v>
+      </c>
+      <c r="D285">
+        <v>-3</v>
+      </c>
+      <c r="E285">
+        <v>9</v>
+      </c>
+      <c r="F285" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286">
+        <v>0.25</v>
+      </c>
+      <c r="B286">
+        <v>-2</v>
+      </c>
+      <c r="C286">
+        <v>0.5</v>
+      </c>
+      <c r="D286">
+        <v>-3</v>
+      </c>
+      <c r="E286">
+        <v>9</v>
+      </c>
+      <c r="F286" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287">
+        <v>0.25</v>
+      </c>
+      <c r="B287">
+        <v>-1</v>
+      </c>
+      <c r="C287">
+        <v>0.75</v>
+      </c>
+      <c r="D287">
+        <v>-2</v>
+      </c>
+      <c r="E287">
+        <v>9</v>
+      </c>
+      <c r="F287" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288">
+        <v>0.25</v>
+      </c>
+      <c r="B288">
+        <v>-1</v>
+      </c>
+      <c r="C288">
+        <v>0.75</v>
+      </c>
+      <c r="D288">
+        <v>-3</v>
+      </c>
+      <c r="E288">
+        <v>9</v>
+      </c>
+      <c r="F288" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289">
+        <v>0.25</v>
+      </c>
+      <c r="B289">
+        <v>-2</v>
+      </c>
+      <c r="C289">
+        <v>0.75</v>
+      </c>
+      <c r="D289">
+        <v>-3</v>
+      </c>
+      <c r="E289">
+        <v>9</v>
+      </c>
+      <c r="F289" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290">
+        <v>0.25</v>
+      </c>
+      <c r="B290">
+        <v>-1</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>-2</v>
+      </c>
+      <c r="E290">
+        <v>9</v>
+      </c>
+      <c r="F290" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291">
+        <v>0.25</v>
+      </c>
+      <c r="B291">
+        <v>-1</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>-3</v>
+      </c>
+      <c r="E291">
+        <v>9</v>
+      </c>
+      <c r="F291" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292">
+        <v>0.25</v>
+      </c>
+      <c r="B292">
+        <v>-2</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>-3</v>
+      </c>
+      <c r="E292">
+        <v>9</v>
+      </c>
+      <c r="F292" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293">
+        <v>0.5</v>
+      </c>
+      <c r="B293">
+        <v>-1</v>
+      </c>
+      <c r="C293">
+        <v>0.75</v>
+      </c>
+      <c r="D293">
+        <v>-2</v>
+      </c>
+      <c r="E293">
+        <v>9</v>
+      </c>
+      <c r="F293" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294">
+        <v>0.5</v>
+      </c>
+      <c r="B294">
+        <v>-1</v>
+      </c>
+      <c r="C294">
+        <v>0.75</v>
+      </c>
+      <c r="D294">
+        <v>-3</v>
+      </c>
+      <c r="E294">
+        <v>9</v>
+      </c>
+      <c r="F294" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295">
+        <v>0.5</v>
+      </c>
+      <c r="B295">
+        <v>-2</v>
+      </c>
+      <c r="C295">
+        <v>0.75</v>
+      </c>
+      <c r="D295">
+        <v>-3</v>
+      </c>
+      <c r="E295">
+        <v>9</v>
+      </c>
+      <c r="F295" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296">
+        <v>0.5</v>
+      </c>
+      <c r="B296">
+        <v>-1</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>-2</v>
+      </c>
+      <c r="E296">
+        <v>9</v>
+      </c>
+      <c r="F296" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297">
+        <v>0.5</v>
+      </c>
+      <c r="B297">
+        <v>-1</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>-3</v>
+      </c>
+      <c r="E297">
+        <v>9</v>
+      </c>
+      <c r="F297" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298">
+        <v>0.5</v>
+      </c>
+      <c r="B298">
+        <v>-2</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>-3</v>
+      </c>
+      <c r="E298">
+        <v>9</v>
+      </c>
+      <c r="F298" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299">
+        <v>0.75</v>
+      </c>
+      <c r="B299">
+        <v>-1</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>-2</v>
+      </c>
+      <c r="E299">
+        <v>9</v>
+      </c>
+      <c r="F299" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300">
+        <v>0.75</v>
+      </c>
+      <c r="B300">
+        <v>-1</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>-3</v>
+      </c>
+      <c r="E300">
+        <v>9</v>
+      </c>
+      <c r="F300" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301">
+        <v>0.75</v>
+      </c>
+      <c r="B301">
+        <v>-2</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>-3</v>
+      </c>
+      <c r="E301">
+        <v>9</v>
+      </c>
+      <c r="F301" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/stimuli.xlsx
+++ b/data/stimuli.xlsx
@@ -37,15 +37,6 @@
     <t>CONTROL; p fixed / x varies, x0 negative vs positive</t>
   </si>
   <si>
-    <t>CONTROL; p varies / x varies, x0 negative vs positive</t>
-  </si>
-  <si>
-    <t>CONTROL; p varies or is 1 / x varies, x0 negative vs 0</t>
-  </si>
-  <si>
-    <t>CONTROL; p varies or is 1 / x varies, x0 positive vs 0</t>
-  </si>
-  <si>
     <t>CONTROL; p fixed / x varies; x0 positive</t>
   </si>
   <si>
@@ -68,6 +59,15 @@
   </si>
   <si>
     <t>CONGRUENT NEG; p varies / x varies; x0 negative</t>
+  </si>
+  <si>
+    <t>CONTROL; p varies / x varies, x0 negative vs positive</t>
+  </si>
+  <si>
+    <t>CONTROL; p varies or is 1 / x varies, x0 negative vs 0</t>
+  </si>
+  <si>
+    <t>CONTROL; p varies or is 1 / x varies, x0 positive vs 0</t>
   </si>
 </sst>
 </file>
@@ -1150,16 +1150,16 @@
         <v>0.25</v>
       </c>
       <c r="B38">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -1170,16 +1170,16 @@
         <v>0.25</v>
       </c>
       <c r="B39">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -1190,16 +1190,16 @@
         <v>0.25</v>
       </c>
       <c r="B40">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -1207,19 +1207,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B41">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0.5</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -1227,19 +1227,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B42">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0.5</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
@@ -1247,10 +1247,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B43">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>0.5</v>
@@ -1259,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
@@ -1267,19 +1267,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
@@ -1287,19 +1287,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -1307,19 +1307,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B46">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -1327,19 +1327,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B47">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -1347,19 +1347,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B48">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -1367,19 +1367,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B49">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -1390,19 +1390,19 @@
         <v>0.25</v>
       </c>
       <c r="B50">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C50">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1410,19 +1410,19 @@
         <v>0.25</v>
       </c>
       <c r="B51">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C51">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1433,181 +1433,181 @@
         <v>-2</v>
       </c>
       <c r="C52">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B53">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C53">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B54">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C54">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B55">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C55">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B56">
         <v>-3</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B57">
         <v>-3</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B58">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B61">
         <v>-2</v>
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1630,19 +1630,19 @@
         <v>0.25</v>
       </c>
       <c r="B62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1650,19 +1650,19 @@
         <v>0.25</v>
       </c>
       <c r="B63">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1670,139 +1670,139 @@
         <v>0.25</v>
       </c>
       <c r="B64">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B65">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B66">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B67">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B68">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B69">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B70">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1810,19 +1810,19 @@
         <v>0.5</v>
       </c>
       <c r="B71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1830,19 +1830,19 @@
         <v>0.5</v>
       </c>
       <c r="B72">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1850,19 +1850,19 @@
         <v>0.5</v>
       </c>
       <c r="B73">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1870,19 +1870,19 @@
         <v>0.5</v>
       </c>
       <c r="B74">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1890,19 +1890,19 @@
         <v>0.5</v>
       </c>
       <c r="B75">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1910,224 +1910,224 @@
         <v>0.5</v>
       </c>
       <c r="B76">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B77">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B78">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B79">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B80">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C80">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B81">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C81">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B82">
         <v>-1</v>
       </c>
       <c r="C82">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E82">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B83">
         <v>-3</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E83">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B84">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E84">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B85">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E85">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B86">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B87">
         <v>-2</v>
@@ -2136,33 +2136,33 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E87">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B88">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2170,19 +2170,19 @@
         <v>0.5</v>
       </c>
       <c r="B89">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2190,19 +2190,19 @@
         <v>0.5</v>
       </c>
       <c r="B90">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E90">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2213,76 +2213,76 @@
         <v>-1</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E91">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B92">
         <v>-3</v>
       </c>
       <c r="C92">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F92" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B93">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C93">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B94">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C94">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2290,19 +2290,19 @@
         <v>0.75</v>
       </c>
       <c r="B95">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C95">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E95">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2313,16 +2313,16 @@
         <v>-2</v>
       </c>
       <c r="C96">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E96">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2330,319 +2330,319 @@
         <v>0.75</v>
       </c>
       <c r="B97">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C97">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E97">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B98">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C98">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F98" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C99">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F99" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B100">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F100" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B101">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C101">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B102">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C102">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F102" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B103">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="C103">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F103" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B104">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B105">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C105">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F105" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B106">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F106" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B108">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C108">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F108" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B109">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F109" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B110">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F110" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B111">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F111" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B112">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F112" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2650,19 +2650,19 @@
         <v>0.75</v>
       </c>
       <c r="B113">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2670,19 +2670,19 @@
         <v>0.75</v>
       </c>
       <c r="B114">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F114" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2690,427 +2690,427 @@
         <v>0.75</v>
       </c>
       <c r="B115">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F115" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B116">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E116">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B117">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E117">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B118">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E118">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B119">
         <v>-3</v>
       </c>
       <c r="C119">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E119">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F119" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B120">
         <v>-3</v>
       </c>
       <c r="C120">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E120">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F120" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B121">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C121">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E121">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F121" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B122">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C122">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E122">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F122" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B123">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C123">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B124">
         <v>-2</v>
       </c>
       <c r="C124">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E124">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B125">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C125">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E125">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F125" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B126">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C126">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E126">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F126" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B127">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C127">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E127">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F127" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B128">
         <v>-3</v>
       </c>
       <c r="C128">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E128">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F128" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B129">
         <v>-3</v>
       </c>
       <c r="C129">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E129">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F129" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B130">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C130">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E130">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F130" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B131">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C131">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E131">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F131" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B132">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C132">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E132">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F132" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B133">
         <v>-2</v>
       </c>
       <c r="C133">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E133">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F133" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C134">
         <v>0.5</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F134" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C135">
         <v>0.5</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E135">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F135" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C136">
         <v>0.5</v>
@@ -3119,58 +3119,58 @@
         <v>3</v>
       </c>
       <c r="E136">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F136" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B137">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>0.75</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F137" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B138">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="C138">
         <v>0.75</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E138">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B139">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="C139">
         <v>0.75</v>
@@ -3179,118 +3179,118 @@
         <v>3</v>
       </c>
       <c r="E139">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F139" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B140">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F140" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B141">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B142">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C142">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D142">
         <v>3</v>
       </c>
       <c r="E142">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F142" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <v>0.75</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F143" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>0.75</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E144">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C145">
         <v>0.75</v>
@@ -3299,250 +3299,250 @@
         <v>3</v>
       </c>
       <c r="E145">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B146">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F146" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B147">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E147">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F147" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B148">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E148">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F148" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B149">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F149" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B150">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E150">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B151">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F151" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B152">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E152">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F152" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B153">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E153">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F153" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B154">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E154">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F154" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B155">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E155">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F155" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B156">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E156">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F156" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E157">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F157" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3550,19 +3550,19 @@
         <v>0.25</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E158">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F158" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3570,19 +3570,19 @@
         <v>0.25</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E159">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F159" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3590,19 +3590,19 @@
         <v>0.25</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E160">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F160" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3610,19 +3610,19 @@
         <v>0.5</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E161">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F161" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3630,19 +3630,19 @@
         <v>0.5</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E162">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F162" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3650,139 +3650,139 @@
         <v>0.5</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E163">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F163" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E164">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F164" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E165">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F165" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E166">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F166" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E167">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F167" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E168">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F168" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B169">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E169">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F169" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3790,19 +3790,19 @@
         <v>0.25</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C170">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3810,19 +3810,19 @@
         <v>0.25</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C171">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3830,67 +3830,67 @@
         <v>0.25</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C172">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D172">
         <v>3</v>
       </c>
       <c r="E172">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C173">
         <v>0.5</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C174">
         <v>0.5</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E174">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C175">
         <v>0.5</v>
@@ -3899,130 +3899,130 @@
         <v>3</v>
       </c>
       <c r="E175">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C176">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C177">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C178">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D178">
         <v>3</v>
       </c>
       <c r="E178">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D181">
         <v>3</v>
       </c>
       <c r="E181">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4030,19 +4030,19 @@
         <v>0.25</v>
       </c>
       <c r="B182">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C182">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D182">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4050,19 +4050,19 @@
         <v>0.25</v>
       </c>
       <c r="B183">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C183">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D183">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4073,181 +4073,181 @@
         <v>-2</v>
       </c>
       <c r="C184">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D184">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E184">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B185">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C185">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D185">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B186">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C186">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D186">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B187">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C187">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D187">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E187">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B188">
         <v>-3</v>
       </c>
       <c r="C188">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B189">
         <v>-3</v>
       </c>
       <c r="C189">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E189">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B190">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C190">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E190">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B191">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B192">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B193">
         <v>-2</v>
@@ -4256,13 +4256,13 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E193">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4270,19 +4270,19 @@
         <v>0.25</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C194">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4290,19 +4290,19 @@
         <v>0.25</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C195">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D195">
         <v>2</v>
       </c>
       <c r="E195">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4310,139 +4310,139 @@
         <v>0.25</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C196">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D196">
         <v>3</v>
       </c>
       <c r="E196">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C197">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D197">
         <v>1</v>
       </c>
       <c r="E197">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C198">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D198">
         <v>2</v>
       </c>
       <c r="E198">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C199">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D199">
         <v>3</v>
       </c>
       <c r="E199">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D200">
         <v>1</v>
       </c>
       <c r="E200">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D201">
         <v>2</v>
       </c>
       <c r="E201">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D202">
         <v>3</v>
       </c>
       <c r="E202">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4450,19 +4450,19 @@
         <v>0.5</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C203">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D203">
         <v>1</v>
       </c>
       <c r="E203">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4470,19 +4470,19 @@
         <v>0.5</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C204">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D204">
         <v>2</v>
       </c>
       <c r="E204">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4490,19 +4490,19 @@
         <v>0.5</v>
       </c>
       <c r="B205">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C205">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D205">
         <v>3</v>
       </c>
       <c r="E205">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4510,19 +4510,19 @@
         <v>0.5</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D206">
         <v>1</v>
       </c>
       <c r="E206">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4530,19 +4530,19 @@
         <v>0.5</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D207">
         <v>2</v>
       </c>
       <c r="E207">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4550,224 +4550,224 @@
         <v>0.5</v>
       </c>
       <c r="B208">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D208">
         <v>3</v>
       </c>
       <c r="E208">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D209">
         <v>1</v>
       </c>
       <c r="E209">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D210">
         <v>2</v>
       </c>
       <c r="E210">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B211">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D211">
         <v>3</v>
       </c>
       <c r="E211">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B212">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C212">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D212">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B213">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C213">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D213">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E213">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B214">
         <v>-1</v>
       </c>
       <c r="C214">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D214">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E214">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B215">
         <v>-3</v>
       </c>
       <c r="C215">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B216">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C216">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E216">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B217">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C217">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E217">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B218">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B219">
         <v>-2</v>
@@ -4776,33 +4776,33 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E219">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B220">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4810,19 +4810,19 @@
         <v>0.5</v>
       </c>
       <c r="B221">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C221">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4830,19 +4830,19 @@
         <v>0.5</v>
       </c>
       <c r="B222">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C222">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E222">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4853,76 +4853,76 @@
         <v>-1</v>
       </c>
       <c r="C223">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E223">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B224">
         <v>-3</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D224">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E224">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B225">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D225">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E225">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B226">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D226">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E226">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4930,19 +4930,19 @@
         <v>0.75</v>
       </c>
       <c r="B227">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D227">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4953,16 +4953,16 @@
         <v>-2</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D228">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E228">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4970,319 +4970,319 @@
         <v>0.75</v>
       </c>
       <c r="B229">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D229">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E229">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C230">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C231">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E231">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C232">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E232">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C233">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C234">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E234">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B235">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C235">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E235">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B236">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B237">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E238">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C239">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C240">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E240">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C241">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E241">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E243">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E244">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5290,19 +5290,19 @@
         <v>0.75</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5310,19 +5310,19 @@
         <v>0.75</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E246">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5330,36 +5330,36 @@
         <v>0.75</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E247">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B248">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C248">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E248">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F248" t="s">
         <v>15</v>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B249">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C249">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E249">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F249" t="s">
         <v>15</v>
@@ -5387,19 +5387,19 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B250">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C250">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E250">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F250" t="s">
         <v>15</v>
@@ -5407,19 +5407,19 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B251">
         <v>-3</v>
       </c>
       <c r="C251">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D251">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F251" t="s">
         <v>15</v>
@@ -5427,19 +5427,19 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B252">
         <v>-3</v>
       </c>
       <c r="C252">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D252">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E252">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F252" t="s">
         <v>15</v>
@@ -5447,19 +5447,19 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B253">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C253">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D253">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E253">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F253" t="s">
         <v>15</v>
@@ -5467,19 +5467,19 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B254">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D254">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E254">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F254" t="s">
         <v>15</v>
@@ -5487,19 +5487,19 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B255">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D255">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E255">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F255" t="s">
         <v>15</v>
@@ -5507,19 +5507,19 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B256">
         <v>-2</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D256">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E256">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F256" t="s">
         <v>15</v>
@@ -5527,19 +5527,19 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B257">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C257">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D257">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F257" t="s">
         <v>15</v>
@@ -5547,19 +5547,19 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B258">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C258">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D258">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E258">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F258" t="s">
         <v>15</v>
@@ -5567,19 +5567,19 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B259">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C259">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D259">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E259">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F259" t="s">
         <v>15</v>
@@ -5587,19 +5587,19 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B260">
         <v>-3</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D260">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F260" t="s">
         <v>15</v>
@@ -5607,19 +5607,19 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B261">
         <v>-3</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D261">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E261">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F261" t="s">
         <v>15</v>
@@ -5627,19 +5627,19 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B262">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D262">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E262">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F262" t="s">
         <v>15</v>
@@ -5647,19 +5647,19 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B263">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D263">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E263">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F263" t="s">
         <v>15</v>
@@ -5667,19 +5667,19 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B264">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D264">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E264">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F264" t="s">
         <v>15</v>
@@ -5687,19 +5687,19 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B265">
         <v>-2</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D265">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E265">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F265" t="s">
         <v>15</v>
@@ -5707,50 +5707,50 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C266">
         <v>0.5</v>
       </c>
       <c r="D266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E266">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C267">
         <v>0.5</v>
       </c>
       <c r="D267">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E267">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B268">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C268">
         <v>0.5</v>
@@ -5759,58 +5759,58 @@
         <v>3</v>
       </c>
       <c r="E268">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C269">
         <v>0.75</v>
       </c>
       <c r="D269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E269">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C270">
         <v>0.75</v>
       </c>
       <c r="D270">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E270">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B271">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C271">
         <v>0.75</v>
@@ -5819,118 +5819,118 @@
         <v>3</v>
       </c>
       <c r="E271">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E272">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E273">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B274">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D274">
         <v>3</v>
       </c>
       <c r="E274">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C275">
         <v>0.75</v>
       </c>
       <c r="D275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E275">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C276">
         <v>0.75</v>
       </c>
       <c r="D276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E276">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C277">
         <v>0.75</v>
@@ -5939,27 +5939,27 @@
         <v>3</v>
       </c>
       <c r="E277">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E278">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F278" t="s">
         <v>16</v>
@@ -5967,19 +5967,19 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E279">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F279" t="s">
         <v>16</v>
@@ -5987,19 +5987,19 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B280">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E280">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F280" t="s">
         <v>16</v>
@@ -6007,19 +6007,19 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E281">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F281" t="s">
         <v>16</v>
@@ -6027,19 +6027,19 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E282">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F282" t="s">
         <v>16</v>
@@ -6047,19 +6047,19 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E283">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F283" t="s">
         <v>16</v>
@@ -6067,122 +6067,122 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B284">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C284">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E284">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F284" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B285">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C285">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E285">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F285" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B286">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C286">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D286">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E286">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F286" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B287">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C287">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D287">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E287">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F287" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B288">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C288">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D288">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E288">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F288" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B289">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C289">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D289">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E289">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F289" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6190,16 +6190,16 @@
         <v>0.25</v>
       </c>
       <c r="B290">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E290">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F290" t="s">
         <v>17</v>
@@ -6210,16 +6210,16 @@
         <v>0.25</v>
       </c>
       <c r="B291">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E291">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F291" t="s">
         <v>17</v>
@@ -6230,16 +6230,16 @@
         <v>0.25</v>
       </c>
       <c r="B292">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E292">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F292" t="s">
         <v>17</v>
@@ -6250,16 +6250,16 @@
         <v>0.5</v>
       </c>
       <c r="B293">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C293">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E293">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F293" t="s">
         <v>17</v>
@@ -6270,16 +6270,16 @@
         <v>0.5</v>
       </c>
       <c r="B294">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C294">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D294">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E294">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F294" t="s">
         <v>17</v>
@@ -6290,16 +6290,16 @@
         <v>0.5</v>
       </c>
       <c r="B295">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C295">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E295">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F295" t="s">
         <v>17</v>
@@ -6307,19 +6307,19 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B296">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E296">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F296" t="s">
         <v>17</v>
@@ -6327,19 +6327,19 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B297">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E297">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F297" t="s">
         <v>17</v>
@@ -6347,19 +6347,19 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B298">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E298">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F298" t="s">
         <v>17</v>
@@ -6367,19 +6367,19 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B299">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
       <c r="D299">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E299">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F299" t="s">
         <v>17</v>
@@ -6387,19 +6387,19 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B300">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E300">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F300" t="s">
         <v>17</v>
@@ -6407,19 +6407,19 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B301">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
       <c r="D301">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E301">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F301" t="s">
         <v>17</v>
